--- a/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/StructureDefinition/JP_Immunization_ManufacturedDate</t>
+    <t>http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Immunization_ManufacturedDate</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
